--- a/fhir/StructureDefinition-ehealth-task.xlsx
+++ b/fhir/StructureDefinition-ehealth-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-task.xlsx
+++ b/fhir/StructureDefinition-ehealth-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-task.xlsx
+++ b/fhir/StructureDefinition-ehealth-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-task.xlsx
+++ b/fhir/StructureDefinition-ehealth-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1984,15 +1984,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.15234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.08203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2003,26 +2003,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.7734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="94.296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-task.xlsx
+++ b/fhir/StructureDefinition-ehealth-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-task.xlsx
+++ b/fhir/StructureDefinition-ehealth-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -452,7 +452,7 @@
     <t>episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-task-episodeOfCare} &lt;&lt;referenced&gt;&gt;
+    <t xml:space="preserve">Extension {http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-task-episodeOfCare}
 </t>
   </si>
   <si>

--- a/fhir/StructureDefinition-ehealth-task.xlsx
+++ b/fhir/StructureDefinition-ehealth-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-task.xlsx
+++ b/fhir/StructureDefinition-ehealth-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -572,7 +572,7 @@
     <t>Task.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ActivityDefinition)
+    <t xml:space="preserve">canonical(ActivityDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -606,7 +606,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -729,7 +729,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -997,7 +997,7 @@
     <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/task-code</t>
+    <t>http://hl7.org/fhir/ValueSet/task-code|4.0.1</t>
   </si>
   <si>
     <t>Request.code, Event.code</t>
@@ -1067,7 +1067,7 @@
     <t>Task.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1199,7 +1199,7 @@
     <t>The type(s) of task performers allowed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.role, Request.performerType</t>
@@ -1240,7 +1240,7 @@
     <t>Task.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1307,7 +1307,7 @@
     <t>Task.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1354,7 +1354,7 @@
     <t>Task.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -5675,7 +5675,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>292</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>301</v>
       </c>
@@ -10801,12 +10801,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN77">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
